--- a/iselUssSyncV2/LogISEL_LogUSS_WSLgrid/leereRinne/leereRinne.xlsx
+++ b/iselUssSyncV2/LogISEL_LogUSS_WSLgrid/leereRinne/leereRinne.xlsx
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D325"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -656,4481 +656,3977 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="B42" s="0">
         <v>65</v>
       </c>
       <c r="C42" s="0">
-        <v>0.39095238095238127</v>
+        <v>0.83059760956175288</v>
       </c>
       <c r="D42" s="0">
-        <v>0.044746805560333558</v>
+        <v>0.038956917668919185</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="B43" s="0">
         <v>125</v>
       </c>
       <c r="C43" s="0">
-        <v>0.39436507936507936</v>
+        <v>0.80557768924302853</v>
       </c>
       <c r="D43" s="0">
-        <v>0.046365876168816683</v>
+        <v>0.042491939709067714</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="B44" s="0">
         <v>425</v>
       </c>
       <c r="C44" s="0">
-        <v>0.82800796812749</v>
+        <v>0.82178571428571456</v>
       </c>
       <c r="D44" s="0">
-        <v>0.042275476771468583</v>
+        <v>0.041730325114347197</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="B45" s="0">
         <v>485</v>
       </c>
       <c r="C45" s="0">
-        <v>0.84222222222222221</v>
+        <v>1.1707569721115547</v>
       </c>
       <c r="D45" s="0">
-        <v>0.040017703032510829</v>
+        <v>0.033103243061597773</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B46" s="0">
         <v>65</v>
       </c>
       <c r="C46" s="0">
-        <v>0.80103174603174587</v>
+        <v>0.78832669322709192</v>
       </c>
       <c r="D46" s="0">
-        <v>0.10620831492632316</v>
+        <v>0.043317304216923716</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B47" s="0">
         <v>125</v>
       </c>
       <c r="C47" s="0">
-        <v>0.41666666666666635</v>
+        <v>0.81337301587301591</v>
       </c>
       <c r="D47" s="0">
-        <v>0.050274148822636845</v>
+        <v>0.043940966215865233</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B48" s="0">
         <v>425</v>
       </c>
       <c r="C48" s="0">
-        <v>0.83134920634920673</v>
+        <v>0.83717131474103568</v>
       </c>
       <c r="D48" s="0">
-        <v>0.051011336519943044</v>
+        <v>0.041332390855895816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B49" s="0">
         <v>485</v>
       </c>
       <c r="C49" s="0">
-        <v>0.97531746031745958</v>
+        <v>0.81249999999999956</v>
       </c>
       <c r="D49" s="0">
-        <v>0.1856277666237772</v>
+        <v>0.069886789499973054</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B50" s="0">
         <v>65</v>
       </c>
       <c r="C50" s="0">
-        <v>0.84557768924302801</v>
+        <v>0.79253968253968299</v>
       </c>
       <c r="D50" s="0">
-        <v>0.03968834766325053</v>
+        <v>0.046244396803887429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B51" s="0">
         <v>125</v>
       </c>
       <c r="C51" s="0">
-        <v>0.82721115537848555</v>
+        <v>0.79685258964143368</v>
       </c>
       <c r="D51" s="0">
-        <v>0.042494602422657866</v>
+        <v>0.03948739271295245</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B52" s="0">
         <v>425</v>
       </c>
       <c r="C52" s="0">
-        <v>0.8140079365079369</v>
+        <v>0.79380952380952385</v>
       </c>
       <c r="D52" s="0">
-        <v>0.046659399249824485</v>
+        <v>0.042723182783855146</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B53" s="0">
         <v>485</v>
       </c>
       <c r="C53" s="0">
-        <v>1.1834523809523805</v>
+        <v>0.78773809523809557</v>
       </c>
       <c r="D53" s="0">
-        <v>0.030992636869508424</v>
+        <v>0.047587650909312523</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="B54" s="0">
         <v>65</v>
       </c>
       <c r="C54" s="0">
-        <v>0.83059760956175288</v>
+        <v>0.78785714285714314</v>
       </c>
       <c r="D54" s="0">
-        <v>0.038956917668919185</v>
+        <v>0.043868821894754551</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="B55" s="0">
         <v>125</v>
       </c>
       <c r="C55" s="0">
-        <v>0.80557768924302853</v>
+        <v>0.79107142857142909</v>
       </c>
       <c r="D55" s="0">
-        <v>0.042491939709067714</v>
+        <v>0.044917397151608848</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="B56" s="0">
         <v>425</v>
       </c>
       <c r="C56" s="0">
-        <v>0.82178571428571456</v>
+        <v>0.78999999999999948</v>
       </c>
       <c r="D56" s="0">
-        <v>0.041730325114347197</v>
+        <v>0.040079602068783436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="B57" s="0">
         <v>485</v>
       </c>
       <c r="C57" s="0">
-        <v>1.1707569721115547</v>
+        <v>0.78569721115537794</v>
       </c>
       <c r="D57" s="0">
-        <v>0.033103243061597773</v>
+        <v>0.039847358158242231</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B58" s="0">
         <v>65</v>
       </c>
       <c r="C58" s="0">
-        <v>0.78832669322709192</v>
+        <v>0.78697211155378444</v>
       </c>
       <c r="D58" s="0">
-        <v>0.043317304216923716</v>
+        <v>0.042071311117238892</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B59" s="0">
         <v>125</v>
       </c>
       <c r="C59" s="0">
-        <v>0.81337301587301591</v>
+        <v>0.78856573705179245</v>
       </c>
       <c r="D59" s="0">
-        <v>0.043940966215865233</v>
+        <v>0.040054146618728262</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B60" s="0">
         <v>425</v>
       </c>
       <c r="C60" s="0">
-        <v>0.83717131474103568</v>
+        <v>0.78904761904761866</v>
       </c>
       <c r="D60" s="0">
-        <v>0.041332390855895816</v>
+        <v>0.040068240026863079</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B61" s="0">
         <v>485</v>
       </c>
       <c r="C61" s="0">
-        <v>0.81249999999999956</v>
+        <v>0.79015936254980146</v>
       </c>
       <c r="D61" s="0">
-        <v>0.069886789499973054</v>
+        <v>0.044828277928022589</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="B62" s="0">
         <v>65</v>
       </c>
       <c r="C62" s="0">
-        <v>0.79253968253968299</v>
+        <v>0.786932270916335</v>
       </c>
       <c r="D62" s="0">
-        <v>0.046244396803887429</v>
+        <v>0.042366866705272302</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="B63" s="0">
         <v>125</v>
       </c>
       <c r="C63" s="0">
-        <v>0.79685258964143368</v>
+        <v>0.38277777777777816</v>
       </c>
       <c r="D63" s="0">
-        <v>0.03948739271295245</v>
+        <v>0.048902519328104972</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="B64" s="0">
         <v>425</v>
       </c>
       <c r="C64" s="0">
-        <v>0.79380952380952385</v>
+        <v>0.40432539682539681</v>
       </c>
       <c r="D64" s="0">
-        <v>0.042723182783855146</v>
+        <v>0.044146862718541062</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="B65" s="0">
         <v>485</v>
       </c>
       <c r="C65" s="0">
-        <v>0.78773809523809557</v>
+        <v>0.76432539682539624</v>
       </c>
       <c r="D65" s="0">
-        <v>0.047587650909312523</v>
+        <v>0.040336498822928377</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
       </c>
       <c r="C66" s="0">
-        <v>0.78785714285714314</v>
+        <v>0.76354581673306721</v>
       </c>
       <c r="D66" s="0">
-        <v>0.043868821894754551</v>
+        <v>0.081509366899947616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="B67" s="0">
         <v>125</v>
       </c>
       <c r="C67" s="0">
-        <v>0.79107142857142909</v>
+        <v>0.37370517928286867</v>
       </c>
       <c r="D67" s="0">
-        <v>0.044917397151608848</v>
+        <v>0.050764325397543941</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="B68" s="0">
         <v>425</v>
       </c>
       <c r="C68" s="0">
-        <v>0.78999999999999948</v>
+        <v>0.35968253968253971</v>
       </c>
       <c r="D68" s="0">
-        <v>0.040079602068783436</v>
+        <v>0.041089475934454785</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="B69" s="0">
         <v>485</v>
       </c>
       <c r="C69" s="0">
-        <v>0.78569721115537794</v>
+        <v>0.35083665338645437</v>
       </c>
       <c r="D69" s="0">
-        <v>0.039847358158242231</v>
+        <v>0.044851947685194016</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B70" s="0">
         <v>65</v>
       </c>
       <c r="C70" s="0">
-        <v>0.78697211155378444</v>
+        <v>0.37167330677290811</v>
       </c>
       <c r="D70" s="0">
-        <v>0.042071311117238892</v>
+        <v>0.079430402520832735</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B71" s="0">
         <v>125</v>
       </c>
       <c r="C71" s="0">
-        <v>0.78856573705179245</v>
+        <v>0.37334661354581677</v>
       </c>
       <c r="D71" s="0">
-        <v>0.040054146618728262</v>
+        <v>0.044478707023541696</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B72" s="0">
         <v>425</v>
       </c>
       <c r="C72" s="0">
-        <v>0.78904761904761866</v>
+        <v>0.34908730158730134</v>
       </c>
       <c r="D72" s="0">
-        <v>0.040068240026863079</v>
+        <v>0.050907700220040819</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B73" s="0">
         <v>485</v>
       </c>
       <c r="C73" s="0">
-        <v>0.79015936254980146</v>
+        <v>0.37454183266932256</v>
       </c>
       <c r="D73" s="0">
-        <v>0.044828277928022589</v>
+        <v>0.047422455050618012</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B74" s="0">
         <v>65</v>
       </c>
       <c r="C74" s="0">
-        <v>0.786932270916335</v>
+        <v>0.77410358565737003</v>
       </c>
       <c r="D74" s="0">
-        <v>0.042366866705272302</v>
+        <v>0.039561259169693191</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B75" s="0">
         <v>125</v>
       </c>
       <c r="C75" s="0">
-        <v>0.38277777777777816</v>
+        <v>0.36948412698412703</v>
       </c>
       <c r="D75" s="0">
-        <v>0.048902519328104972</v>
+        <v>0.051836124573395641</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B76" s="0">
         <v>425</v>
       </c>
       <c r="C76" s="0">
-        <v>0.40432539682539681</v>
+        <v>0.37484126984126964</v>
       </c>
       <c r="D76" s="0">
-        <v>0.044146862718541062</v>
+        <v>0.047314058404282641</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B77" s="0">
         <v>485</v>
       </c>
       <c r="C77" s="0">
-        <v>0.76432539682539624</v>
+        <v>0.35234126984126996</v>
       </c>
       <c r="D77" s="0">
-        <v>0.040336498822928377</v>
+        <v>0.047095674884254417</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="B78" s="0">
         <v>65</v>
       </c>
       <c r="C78" s="0">
-        <v>0.76354581673306721</v>
+        <v>0.63662698412698437</v>
       </c>
       <c r="D78" s="0">
-        <v>0.081509366899947616</v>
+        <v>0.17162723593176418</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="B79" s="0">
         <v>125</v>
       </c>
       <c r="C79" s="0">
-        <v>0.37370517928286867</v>
+        <v>0.32162698412698387</v>
       </c>
       <c r="D79" s="0">
-        <v>0.050764325397543941</v>
+        <v>0.051334111291648304</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="B80" s="0">
         <v>425</v>
       </c>
       <c r="C80" s="0">
-        <v>0.35968253968253971</v>
+        <v>0.35163346613545815</v>
       </c>
       <c r="D80" s="0">
-        <v>0.041089475934454785</v>
+        <v>0.048424385546311781</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="B81" s="0">
         <v>485</v>
       </c>
       <c r="C81" s="0">
-        <v>0.35083665338645437</v>
+        <v>0.3433864541832668</v>
       </c>
       <c r="D81" s="0">
-        <v>0.044851947685194016</v>
+        <v>0.046947694893113692</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="B82" s="0">
         <v>65</v>
       </c>
       <c r="C82" s="0">
-        <v>0.37167330677290811</v>
+        <v>0.36844621513944253</v>
       </c>
       <c r="D82" s="0">
-        <v>0.079430402520832735</v>
+        <v>0.043280204431327858</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="B83" s="0">
         <v>125</v>
       </c>
       <c r="C83" s="0">
-        <v>0.37334661354581677</v>
+        <v>0.36944223107569707</v>
       </c>
       <c r="D83" s="0">
-        <v>0.044478707023541696</v>
+        <v>0.045471833583025791</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="B84" s="0">
         <v>425</v>
       </c>
       <c r="C84" s="0">
-        <v>0.34908730158730134</v>
+        <v>0.32019920318725104</v>
       </c>
       <c r="D84" s="0">
-        <v>0.050907700220040819</v>
+        <v>0.050954491061755813</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="B85" s="0">
         <v>485</v>
       </c>
       <c r="C85" s="0">
-        <v>0.37454183266932256</v>
+        <v>0.34253968253968292</v>
       </c>
       <c r="D85" s="0">
-        <v>0.047422455050618012</v>
+        <v>0.048662370549209168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="B86" s="0">
         <v>65</v>
       </c>
       <c r="C86" s="0">
-        <v>0.77410358565737003</v>
+        <v>0.36920634920634893</v>
       </c>
       <c r="D86" s="0">
-        <v>0.039561259169693191</v>
+        <v>0.050291630387341919</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="B87" s="0">
         <v>125</v>
       </c>
       <c r="C87" s="0">
-        <v>0.36948412698412703</v>
+        <v>0.34207171314741042</v>
       </c>
       <c r="D87" s="0">
-        <v>0.051836124573395641</v>
+        <v>0.048872188785170946</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="B88" s="0">
         <v>425</v>
       </c>
       <c r="C88" s="0">
-        <v>0.37484126984126964</v>
+        <v>0.34750000000000003</v>
       </c>
       <c r="D88" s="0">
-        <v>0.047314058404282641</v>
+        <v>0.051221143853776283</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="B89" s="0">
         <v>485</v>
       </c>
       <c r="C89" s="0">
-        <v>0.35234126984126996</v>
+        <v>0.35027888446215116</v>
       </c>
       <c r="D89" s="0">
-        <v>0.047095674884254417</v>
+        <v>0.054636269202340278</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="B90" s="0">
         <v>65</v>
       </c>
       <c r="C90" s="0">
-        <v>0.63662698412698437</v>
+        <v>0.36007968127490053</v>
       </c>
       <c r="D90" s="0">
-        <v>0.17162723593176418</v>
+        <v>0.04709982617269419</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="B91" s="0">
         <v>125</v>
       </c>
       <c r="C91" s="0">
-        <v>0.32162698412698387</v>
+        <v>0.3336254980079682</v>
       </c>
       <c r="D91" s="0">
-        <v>0.051334111291648304</v>
+        <v>0.051013754882884246</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="B92" s="0">
         <v>425</v>
       </c>
       <c r="C92" s="0">
-        <v>0.35163346613545815</v>
+        <v>0.35119521912350599</v>
       </c>
       <c r="D92" s="0">
-        <v>0.048424385546311781</v>
+        <v>0.049064913502948226</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="B93" s="0">
         <v>485</v>
       </c>
       <c r="C93" s="0">
-        <v>0.3433864541832668</v>
+        <v>0.33968253968254003</v>
       </c>
       <c r="D93" s="0">
-        <v>0.046947694893113692</v>
+        <v>0.054186287910396494</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="B94" s="0">
         <v>65</v>
       </c>
       <c r="C94" s="0">
-        <v>0.36844621513944253</v>
+        <v>0.36214285714285699</v>
       </c>
       <c r="D94" s="0">
-        <v>0.043280204431327858</v>
+        <v>0.049902009841553678</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="B95" s="0">
         <v>125</v>
       </c>
       <c r="C95" s="0">
-        <v>0.36944223107569707</v>
+        <v>0.34948207171314727</v>
       </c>
       <c r="D95" s="0">
-        <v>0.045471833583025791</v>
+        <v>0.044408677950270467</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="B96" s="0">
         <v>425</v>
       </c>
       <c r="C96" s="0">
-        <v>0.32019920318725104</v>
+        <v>0.37710317460317427</v>
       </c>
       <c r="D96" s="0">
-        <v>0.050954491061755813</v>
+        <v>0.043124267645970112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="B97" s="0">
         <v>485</v>
       </c>
       <c r="C97" s="0">
-        <v>0.34253968253968292</v>
+        <v>0.36282868525896383</v>
       </c>
       <c r="D97" s="0">
-        <v>0.048662370549209168</v>
+        <v>0.049923606979709954</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="B98" s="0">
         <v>65</v>
       </c>
       <c r="C98" s="0">
-        <v>0.36920634920634893</v>
+        <v>0.35051792828685241</v>
       </c>
       <c r="D98" s="0">
-        <v>0.050291630387341919</v>
+        <v>0.054407082969874773</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="B99" s="0">
         <v>125</v>
       </c>
       <c r="C99" s="0">
-        <v>0.34207171314741042</v>
+        <v>0.36333333333333323</v>
       </c>
       <c r="D99" s="0">
-        <v>0.048872188785170946</v>
+        <v>0.048769724786765944</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="B100" s="0">
         <v>425</v>
       </c>
       <c r="C100" s="0">
-        <v>0.34750000000000003</v>
+        <v>0.37916334661354578</v>
       </c>
       <c r="D100" s="0">
-        <v>0.051221143853776283</v>
+        <v>0.050116835605965561</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="B101" s="0">
         <v>485</v>
       </c>
       <c r="C101" s="0">
-        <v>0.35027888446215116</v>
+        <v>0.31653386454183297</v>
       </c>
       <c r="D101" s="0">
-        <v>0.054636269202340278</v>
+        <v>0.049931331332196426</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="B102" s="0">
         <v>65</v>
       </c>
       <c r="C102" s="0">
-        <v>0.36007968127490053</v>
+        <v>0.33499999999999974</v>
       </c>
       <c r="D102" s="0">
-        <v>0.04709982617269419</v>
+        <v>0.050270186328142251</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="B103" s="0">
         <v>125</v>
       </c>
       <c r="C103" s="0">
-        <v>0.3336254980079682</v>
+        <v>0.36710317460317465</v>
       </c>
       <c r="D103" s="0">
-        <v>0.051013754882884246</v>
+        <v>0.050027296033740232</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="B104" s="0">
         <v>425</v>
       </c>
       <c r="C104" s="0">
-        <v>0.35119521912350599</v>
+        <v>0.35398406374502017</v>
       </c>
       <c r="D104" s="0">
-        <v>0.049064913502948226</v>
+        <v>0.048415532063790442</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="B105" s="0">
         <v>485</v>
       </c>
       <c r="C105" s="0">
-        <v>0.33968253968254003</v>
+        <v>0.36972111553784831</v>
       </c>
       <c r="D105" s="0">
-        <v>0.054186287910396494</v>
+        <v>0.04473390115282367</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="B106" s="0">
         <v>65</v>
       </c>
       <c r="C106" s="0">
-        <v>0.36214285714285699</v>
+        <v>0.75309523809523804</v>
       </c>
       <c r="D106" s="0">
-        <v>0.049902009841553678</v>
+        <v>0.042029477148133501</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="B107" s="0">
         <v>125</v>
       </c>
       <c r="C107" s="0">
-        <v>0.34948207171314727</v>
+        <v>0.37714285714285689</v>
       </c>
       <c r="D107" s="0">
-        <v>0.044408677950270467</v>
+        <v>0.045197347573290018</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="B108" s="0">
         <v>425</v>
       </c>
       <c r="C108" s="0">
-        <v>0.37710317460317427</v>
+        <v>0.36682539682539678</v>
       </c>
       <c r="D108" s="0">
-        <v>0.043124267645970112</v>
+        <v>0.047228372754828142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="B109" s="0">
         <v>485</v>
       </c>
       <c r="C109" s="0">
-        <v>0.36282868525896383</v>
+        <v>0.33848605577689256</v>
       </c>
       <c r="D109" s="0">
-        <v>0.049923606979709954</v>
+        <v>0.051692347642382008</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>1080</v>
+        <v>-600</v>
       </c>
       <c r="B110" s="0">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C110" s="0">
-        <v>0.35051792828685241</v>
+        <v>0.01106719367588933</v>
       </c>
       <c r="D110" s="0">
-        <v>0.054407082969874773</v>
+        <v>0.082707455799770943</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>1080</v>
+        <v>-600</v>
       </c>
       <c r="B111" s="0">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="C111" s="0">
-        <v>0.36333333333333323</v>
+        <v>-0.36482213438735162</v>
       </c>
       <c r="D111" s="0">
-        <v>0.048769724786765944</v>
+        <v>0.024046663964202301</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>1080</v>
+        <v>-600</v>
       </c>
       <c r="B112" s="0">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="C112" s="0">
-        <v>0.37916334661354578</v>
+        <v>0.45162698412698393</v>
       </c>
       <c r="D112" s="0">
-        <v>0.050116835605965561</v>
+        <v>0.01829733794104571</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>1080</v>
+        <v>-600</v>
       </c>
       <c r="B113" s="0">
-        <v>485</v>
+        <v>605</v>
       </c>
       <c r="C113" s="0">
-        <v>0.31653386454183297</v>
+        <v>0.4946613545816726</v>
       </c>
       <c r="D113" s="0">
-        <v>0.049931331332196426</v>
+        <v>0.019984615596947784</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>1140</v>
+        <v>-540</v>
       </c>
       <c r="B114" s="0">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C114" s="0">
-        <v>0.33499999999999974</v>
+        <v>0.042142857142857176</v>
       </c>
       <c r="D114" s="0">
-        <v>0.050270186328142251</v>
+        <v>0.035963840690651186</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>1140</v>
+        <v>-540</v>
       </c>
       <c r="B115" s="0">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="C115" s="0">
-        <v>0.36710317460317465</v>
+        <v>0.031474103585657387</v>
       </c>
       <c r="D115" s="0">
-        <v>0.050027296033740232</v>
+        <v>0.030036949357303701</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>1140</v>
+        <v>-540</v>
       </c>
       <c r="B116" s="0">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="C116" s="0">
-        <v>0.35398406374502017</v>
+        <v>0.47179282868525874</v>
       </c>
       <c r="D116" s="0">
-        <v>0.048415532063790442</v>
+        <v>0.019788201241308759</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>1140</v>
+        <v>-540</v>
       </c>
       <c r="B117" s="0">
-        <v>485</v>
+        <v>605</v>
       </c>
       <c r="C117" s="0">
-        <v>0.36972111553784831</v>
+        <v>0.45426294820717095</v>
       </c>
       <c r="D117" s="0">
-        <v>0.04473390115282367</v>
+        <v>0.017290303111088208</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>1200</v>
+        <v>-480</v>
       </c>
       <c r="B118" s="0">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C118" s="0">
-        <v>0.75309523809523804</v>
+        <v>0.020119047619047627</v>
       </c>
       <c r="D118" s="0">
-        <v>0.042029477148133501</v>
+        <v>0.033714079516651417</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1200</v>
+        <v>-480</v>
       </c>
       <c r="B119" s="0">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="C119" s="0">
-        <v>0.37714285714285689</v>
+        <v>0.01095617529880479</v>
       </c>
       <c r="D119" s="0">
-        <v>0.045197347573290018</v>
+        <v>0.026151139013686354</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>1200</v>
+        <v>-480</v>
       </c>
       <c r="B120" s="0">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="C120" s="0">
-        <v>0.36682539682539678</v>
+        <v>0.46135458167330645</v>
       </c>
       <c r="D120" s="0">
-        <v>0.047228372754828142</v>
+        <v>0.018755206448458593</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1200</v>
+        <v>-480</v>
       </c>
       <c r="B121" s="0">
-        <v>485</v>
+        <v>605</v>
       </c>
       <c r="C121" s="0">
-        <v>0.33848605577689256</v>
+        <v>0.83412698412698372</v>
       </c>
       <c r="D121" s="0">
-        <v>0.051692347642382008</v>
+        <v>0.043635028168875385</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>-600</v>
+        <v>-420</v>
       </c>
       <c r="B122" s="0">
         <v>185</v>
       </c>
       <c r="C122" s="0">
-        <v>0.01106719367588933</v>
+        <v>0.064960317460317343</v>
       </c>
       <c r="D122" s="0">
-        <v>0.082707455799770943</v>
+        <v>0.12927470986336581</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>-600</v>
+        <v>-420</v>
       </c>
       <c r="B123" s="0">
         <v>245</v>
       </c>
       <c r="C123" s="0">
-        <v>-0.36482213438735162</v>
+        <v>0.049166666666666706</v>
       </c>
       <c r="D123" s="0">
-        <v>0.024046663964202301</v>
+        <v>0.027493208143537999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>-600</v>
+        <v>-420</v>
       </c>
       <c r="B124" s="0">
         <v>545</v>
       </c>
       <c r="C124" s="0">
-        <v>0.45162698412698393</v>
+        <v>0.4425396825396829</v>
       </c>
       <c r="D124" s="0">
-        <v>0.01829733794104571</v>
+        <v>0.014053767437298996</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>-600</v>
+        <v>-420</v>
       </c>
       <c r="B125" s="0">
         <v>605</v>
       </c>
       <c r="C125" s="0">
-        <v>0.4946613545816726</v>
+        <v>0.82178571428571423</v>
       </c>
       <c r="D125" s="0">
-        <v>0.019984615596947784</v>
+        <v>0.04497438086897388</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>-540</v>
+        <v>-360</v>
       </c>
       <c r="B126" s="0">
         <v>185</v>
       </c>
       <c r="C126" s="0">
-        <v>0.042142857142857176</v>
+        <v>0.44158730158730192</v>
       </c>
       <c r="D126" s="0">
-        <v>0.035963840690651186</v>
+        <v>0.017235777596120959</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>-540</v>
+        <v>-360</v>
       </c>
       <c r="B127" s="0">
         <v>245</v>
       </c>
       <c r="C127" s="0">
-        <v>0.031474103585657387</v>
+        <v>3.9682539682541038e-05</v>
       </c>
       <c r="D127" s="0">
-        <v>0.030036949357303701</v>
+        <v>0.033033823254102444</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>-540</v>
+        <v>-360</v>
       </c>
       <c r="B128" s="0">
         <v>545</v>
       </c>
       <c r="C128" s="0">
-        <v>0.47179282868525874</v>
+        <v>0.55742063492063465</v>
       </c>
       <c r="D128" s="0">
-        <v>0.019788201241308759</v>
+        <v>0.16073565208561572</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>-540</v>
+        <v>-360</v>
       </c>
       <c r="B129" s="0">
         <v>605</v>
       </c>
       <c r="C129" s="0">
-        <v>0.45426294820717095</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D129" s="0">
-        <v>0.017290303111088208</v>
+        <v>0.045089552327381391</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>-480</v>
+        <v>-300</v>
       </c>
       <c r="B130" s="0">
         <v>185</v>
       </c>
       <c r="C130" s="0">
-        <v>0.020119047619047627</v>
+        <v>0.43884920634920621</v>
       </c>
       <c r="D130" s="0">
-        <v>0.033714079516651417</v>
+        <v>0.018826770572890658</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>-480</v>
+        <v>-300</v>
       </c>
       <c r="B131" s="0">
         <v>245</v>
       </c>
       <c r="C131" s="0">
-        <v>0.01095617529880479</v>
+        <v>0.44952380952380916</v>
       </c>
       <c r="D131" s="0">
-        <v>0.026151139013686354</v>
+        <v>0.01880311675686611</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>-480</v>
+        <v>-300</v>
       </c>
       <c r="B132" s="0">
         <v>545</v>
       </c>
       <c r="C132" s="0">
-        <v>0.46135458167330645</v>
+        <v>0.82214285714285706</v>
       </c>
       <c r="D132" s="0">
-        <v>0.018755206448458593</v>
+        <v>0.04499857709759493</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>-480</v>
+        <v>-300</v>
       </c>
       <c r="B133" s="0">
         <v>605</v>
       </c>
       <c r="C133" s="0">
-        <v>0.83412698412698372</v>
+        <v>0.83257936507936481</v>
       </c>
       <c r="D133" s="0">
-        <v>0.043635028168875385</v>
+        <v>0.046039278774037226</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>-420</v>
+        <v>-240</v>
       </c>
       <c r="B134" s="0">
         <v>185</v>
       </c>
       <c r="C134" s="0">
-        <v>0.064960317460317343</v>
+        <v>0.44482071713147436</v>
       </c>
       <c r="D134" s="0">
-        <v>0.12927470986336581</v>
+        <v>0.017328235025058519</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>-420</v>
+        <v>-240</v>
       </c>
       <c r="B135" s="0">
         <v>245</v>
       </c>
       <c r="C135" s="0">
-        <v>0.049166666666666706</v>
+        <v>0.45139442231075677</v>
       </c>
       <c r="D135" s="0">
-        <v>0.027493208143537999</v>
+        <v>0.0161011741424326</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>-420</v>
+        <v>-240</v>
       </c>
       <c r="B136" s="0">
         <v>545</v>
       </c>
       <c r="C136" s="0">
-        <v>0.4425396825396829</v>
+        <v>0.82527777777777767</v>
       </c>
       <c r="D136" s="0">
-        <v>0.014053767437298996</v>
+        <v>0.043870533702166994</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>-420</v>
+        <v>-240</v>
       </c>
       <c r="B137" s="0">
         <v>605</v>
       </c>
       <c r="C137" s="0">
-        <v>0.82178571428571423</v>
+        <v>1.2196428571428561</v>
       </c>
       <c r="D137" s="0">
-        <v>0.04497438086897388</v>
+        <v>0.03549691963196238</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>-360</v>
+        <v>-180</v>
       </c>
       <c r="B138" s="0">
         <v>185</v>
       </c>
       <c r="C138" s="0">
-        <v>0.44158730158730192</v>
+        <v>0.82404761904761914</v>
       </c>
       <c r="D138" s="0">
-        <v>0.017235777596120959</v>
+        <v>0.047632031999444754</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>-360</v>
+        <v>-180</v>
       </c>
       <c r="B139" s="0">
         <v>245</v>
       </c>
       <c r="C139" s="0">
-        <v>3.9682539682541038e-05</v>
+        <v>0.48543650793650739</v>
       </c>
       <c r="D139" s="0">
-        <v>0.033033823254102444</v>
+        <v>0.018623121486269874</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>-360</v>
+        <v>-180</v>
       </c>
       <c r="B140" s="0">
         <v>545</v>
       </c>
       <c r="C140" s="0">
-        <v>0.55742063492063465</v>
+        <v>0.83713147410358568</v>
       </c>
       <c r="D140" s="0">
-        <v>0.16073565208561572</v>
+        <v>0.058382691317018946</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>-360</v>
+        <v>-180</v>
       </c>
       <c r="B141" s="0">
         <v>605</v>
       </c>
       <c r="C141" s="0">
-        <v>0.82499999999999996</v>
+        <v>1.2031349206349211</v>
       </c>
       <c r="D141" s="0">
-        <v>0.045089552327381391</v>
+        <v>0.034097552382535173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>-300</v>
+        <v>-120</v>
       </c>
       <c r="B142" s="0">
         <v>185</v>
       </c>
       <c r="C142" s="0">
-        <v>0.43884920634920621</v>
+        <v>0.81764940239043804</v>
       </c>
       <c r="D142" s="0">
-        <v>0.018826770572890658</v>
+        <v>0.044484295989050272</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>-300</v>
+        <v>-120</v>
       </c>
       <c r="B143" s="0">
         <v>245</v>
       </c>
       <c r="C143" s="0">
-        <v>0.44952380952380916</v>
+        <v>0.83571428571428552</v>
       </c>
       <c r="D143" s="0">
-        <v>0.01880311675686611</v>
+        <v>0.043792858509805833</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>-300</v>
+        <v>-120</v>
       </c>
       <c r="B144" s="0">
         <v>545</v>
       </c>
       <c r="C144" s="0">
-        <v>0.82214285714285706</v>
+        <v>1.2117460317460307</v>
       </c>
       <c r="D144" s="0">
-        <v>0.04499857709759493</v>
+        <v>0.020221063731989286</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>-300</v>
+        <v>-120</v>
       </c>
       <c r="B145" s="0">
         <v>605</v>
       </c>
       <c r="C145" s="0">
-        <v>0.83257936507936481</v>
+        <v>1.2130278884462138</v>
       </c>
       <c r="D145" s="0">
-        <v>0.046039278774037226</v>
+        <v>0.019151898577517229</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>-240</v>
+        <v>-60</v>
       </c>
       <c r="B146" s="0">
         <v>185</v>
       </c>
       <c r="C146" s="0">
-        <v>0.44482071713147436</v>
+        <v>0.79896414342629396</v>
       </c>
       <c r="D146" s="0">
-        <v>0.017328235025058519</v>
+        <v>0.040994178966816099</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>-240</v>
+        <v>-60</v>
       </c>
       <c r="B147" s="0">
         <v>245</v>
       </c>
       <c r="C147" s="0">
-        <v>0.45139442231075677</v>
+        <v>0.82869047619047631</v>
       </c>
       <c r="D147" s="0">
-        <v>0.0161011741424326</v>
+        <v>0.045754753182769607</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>-240</v>
+        <v>-60</v>
       </c>
       <c r="B148" s="0">
         <v>545</v>
       </c>
       <c r="C148" s="0">
-        <v>0.82527777777777767</v>
+        <v>1.2054980079681268</v>
       </c>
       <c r="D148" s="0">
-        <v>0.043870533702166994</v>
+        <v>0.021964767151416303</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>-240</v>
+        <v>-60</v>
       </c>
       <c r="B149" s="0">
         <v>605</v>
       </c>
       <c r="C149" s="0">
-        <v>1.2196428571428561</v>
+        <v>1.6463492063492067</v>
       </c>
       <c r="D149" s="0">
-        <v>0.03549691963196238</v>
+        <v>0.02166765171498088</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>-180</v>
+        <v>240</v>
       </c>
       <c r="B150" s="0">
         <v>185</v>
       </c>
       <c r="C150" s="0">
-        <v>0.82404761904761914</v>
+        <v>1.2121115537848604</v>
       </c>
       <c r="D150" s="0">
-        <v>0.047632031999444754</v>
+        <v>0.030879175927736428</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>-180</v>
+        <v>240</v>
       </c>
       <c r="B151" s="0">
         <v>245</v>
       </c>
       <c r="C151" s="0">
-        <v>0.48543650793650739</v>
+        <v>1.1588446215139425</v>
       </c>
       <c r="D151" s="0">
-        <v>0.018623121486269874</v>
+        <v>0.019754993317036933</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>-180</v>
+        <v>240</v>
       </c>
       <c r="B152" s="0">
         <v>545</v>
       </c>
       <c r="C152" s="0">
-        <v>0.83713147410358568</v>
+        <v>1.6419444444444451</v>
       </c>
       <c r="D152" s="0">
-        <v>0.058382691317018946</v>
+        <v>0.027378650930638695</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>-180</v>
+        <v>240</v>
       </c>
       <c r="B153" s="0">
         <v>605</v>
       </c>
       <c r="C153" s="0">
-        <v>1.2031349206349211</v>
+        <v>1.6005179282868547</v>
       </c>
       <c r="D153" s="0">
-        <v>0.034097552382535173</v>
+        <v>0.022647972917919996</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>-120</v>
+        <v>300</v>
       </c>
       <c r="B154" s="0">
         <v>185</v>
       </c>
       <c r="C154" s="0">
-        <v>0.81764940239043804</v>
+        <v>1.1564541832669322</v>
       </c>
       <c r="D154" s="0">
-        <v>0.044484295989050272</v>
+        <v>0.023642692156991718</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>-120</v>
+        <v>300</v>
       </c>
       <c r="B155" s="0">
         <v>245</v>
       </c>
       <c r="C155" s="0">
-        <v>0.83571428571428552</v>
+        <v>1.1875396825396836</v>
       </c>
       <c r="D155" s="0">
-        <v>0.043792858509805833</v>
+        <v>0.033712789915444255</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>-120</v>
+        <v>300</v>
       </c>
       <c r="B156" s="0">
         <v>545</v>
       </c>
       <c r="C156" s="0">
-        <v>1.2117460317460307</v>
+        <v>1.6452988047808765</v>
       </c>
       <c r="D156" s="0">
-        <v>0.020221063731989286</v>
+        <v>0.025942443188060348</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>-120</v>
+        <v>300</v>
       </c>
       <c r="B157" s="0">
         <v>605</v>
       </c>
       <c r="C157" s="0">
-        <v>1.2130278884462138</v>
+        <v>1.5950793650793673</v>
       </c>
       <c r="D157" s="0">
-        <v>0.019151898577517229</v>
+        <v>0.019546493016311253</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>-60</v>
+        <v>360</v>
       </c>
       <c r="B158" s="0">
         <v>185</v>
       </c>
       <c r="C158" s="0">
-        <v>0.79896414342629396</v>
+        <v>1.1544444444444426</v>
       </c>
       <c r="D158" s="0">
-        <v>0.040994178966816099</v>
+        <v>0.020726085169733205</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>-60</v>
+        <v>360</v>
       </c>
       <c r="B159" s="0">
         <v>245</v>
       </c>
       <c r="C159" s="0">
-        <v>0.82869047619047631</v>
+        <v>1.1535458167330657</v>
       </c>
       <c r="D159" s="0">
-        <v>0.045754753182769607</v>
+        <v>0.023267507224244643</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>-60</v>
+        <v>360</v>
       </c>
       <c r="B160" s="0">
         <v>545</v>
       </c>
       <c r="C160" s="0">
-        <v>1.2054980079681268</v>
+        <v>1.6026190476190461</v>
       </c>
       <c r="D160" s="0">
-        <v>0.021964767151416303</v>
+        <v>0.021522843286915005</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>-60</v>
+        <v>360</v>
       </c>
       <c r="B161" s="0">
         <v>605</v>
       </c>
       <c r="C161" s="0">
-        <v>1.6463492063492067</v>
+        <v>1.6035714285714309</v>
       </c>
       <c r="D161" s="0">
-        <v>0.02166765171498088</v>
+        <v>0.032270378797774474</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B162" s="0">
         <v>185</v>
       </c>
       <c r="C162" s="0">
-        <v>1.0874603174603177</v>
+        <v>1.1709126984126965</v>
       </c>
       <c r="D162" s="0">
-        <v>0.16539430855831913</v>
+        <v>0.043313463185111055</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B163" s="0">
         <v>245</v>
       </c>
       <c r="C163" s="0">
-        <v>0.82722222222222286</v>
+        <v>1.1621428571428554</v>
       </c>
       <c r="D163" s="0">
-        <v>0.044875017031838445</v>
+        <v>0.028018410079053306</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B164" s="0">
         <v>545</v>
       </c>
       <c r="C164" s="0">
-        <v>1.6458964143426289</v>
+        <v>1.1683333333333326</v>
       </c>
       <c r="D164" s="0">
-        <v>0.031360695577292853</v>
+        <v>0.039685014784000945</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B165" s="0">
         <v>605</v>
       </c>
       <c r="C165" s="0">
-        <v>1.6473015873015875</v>
+        <v>1.5992430278884484</v>
       </c>
       <c r="D165" s="0">
-        <v>0.023085246436807334</v>
+        <v>0.025624689289730336</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="B166" s="0">
         <v>185</v>
       </c>
       <c r="C166" s="0">
-        <v>1.2037301587301581</v>
+        <v>1.1850597609561748</v>
       </c>
       <c r="D166" s="0">
-        <v>0.01917560398064462</v>
+        <v>0.046881727936826621</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="B167" s="0">
         <v>245</v>
       </c>
       <c r="C167" s="0">
-        <v>1.1940476190476204</v>
+        <v>1.1542629482071696</v>
       </c>
       <c r="D167" s="0">
-        <v>0.059662778394762875</v>
+        <v>0.0220307644368802</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="B168" s="0">
         <v>545</v>
       </c>
       <c r="C168" s="0">
-        <v>1.6381746031746021</v>
+        <v>1.1557142857142839</v>
       </c>
       <c r="D168" s="0">
-        <v>0.034105549633133884</v>
+        <v>0.01920443887220161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="B169" s="0">
         <v>605</v>
       </c>
       <c r="C169" s="0">
-        <v>1.6476190476190478</v>
+        <v>1.5982470119521937</v>
       </c>
       <c r="D169" s="0">
-        <v>0.023530215259641264</v>
+        <v>0.026017585226839526</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="B170" s="0">
         <v>185</v>
       </c>
       <c r="C170" s="0">
-        <v>1.2108764940239038</v>
+        <v>1.1607171314741018</v>
       </c>
       <c r="D170" s="0">
-        <v>0.030854962084873247</v>
+        <v>0.030362537201931019</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="B171" s="0">
         <v>245</v>
       </c>
       <c r="C171" s="0">
-        <v>1.2030278884462151</v>
+        <v>0.78313492063492074</v>
       </c>
       <c r="D171" s="0">
-        <v>0.033184261617874029</v>
+        <v>0.040446876905245677</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="B172" s="0">
         <v>545</v>
       </c>
       <c r="C172" s="0">
-        <v>1.6211904761904761</v>
+        <v>1.1769841269841277</v>
       </c>
       <c r="D172" s="0">
-        <v>0.028692826896459432</v>
+        <v>0.015730288558042069</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="B173" s="0">
         <v>605</v>
       </c>
       <c r="C173" s="0">
-        <v>1.6139285714285707</v>
+        <v>1.1246825396825404</v>
       </c>
       <c r="D173" s="0">
-        <v>0.02728123519870369</v>
+        <v>0.019584794001319409</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="B174" s="0">
         <v>185</v>
       </c>
       <c r="C174" s="0">
-        <v>1.2121115537848604</v>
+        <v>0.77749003984063758</v>
       </c>
       <c r="D174" s="0">
-        <v>0.030879175927736428</v>
+        <v>0.039370990594578693</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="B175" s="0">
         <v>245</v>
       </c>
       <c r="C175" s="0">
-        <v>1.1588446215139425</v>
+        <v>0.77617529880478109</v>
       </c>
       <c r="D175" s="0">
-        <v>0.019754993317036933</v>
+        <v>0.04125667397416273</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="B176" s="0">
         <v>545</v>
       </c>
       <c r="C176" s="0">
-        <v>1.6419444444444451</v>
+        <v>1.1823015873015883</v>
       </c>
       <c r="D176" s="0">
-        <v>0.027378650930638695</v>
+        <v>0.019151844425036289</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="B177" s="0">
         <v>605</v>
       </c>
       <c r="C177" s="0">
-        <v>1.6005179282868547</v>
+        <v>1.155338645418325</v>
       </c>
       <c r="D177" s="0">
-        <v>0.022647972917919996</v>
+        <v>0.019984615596947756</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="B178" s="0">
         <v>185</v>
       </c>
       <c r="C178" s="0">
-        <v>1.1564541832669322</v>
+        <v>0.76470119521912339</v>
       </c>
       <c r="D178" s="0">
-        <v>0.023642692156991718</v>
+        <v>0.042944270381108242</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="B179" s="0">
         <v>245</v>
       </c>
       <c r="C179" s="0">
-        <v>1.1875396825396836</v>
+        <v>0.78290836653386464</v>
       </c>
       <c r="D179" s="0">
-        <v>0.033712789915444255</v>
+        <v>0.037935571298203949</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="B180" s="0">
         <v>545</v>
       </c>
       <c r="C180" s="0">
-        <v>1.6452988047808765</v>
+        <v>0.93753968253968212</v>
       </c>
       <c r="D180" s="0">
-        <v>0.025942443188060348</v>
+        <v>0.17914443196116273</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="B181" s="0">
         <v>605</v>
       </c>
       <c r="C181" s="0">
-        <v>1.5950793650793673</v>
+        <v>1.1556573705179265</v>
       </c>
       <c r="D181" s="0">
-        <v>0.019546493016311253</v>
+        <v>0.019407888485308385</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="B182" s="0">
         <v>185</v>
       </c>
       <c r="C182" s="0">
-        <v>1.1544444444444426</v>
+        <v>0.77509960159362545</v>
       </c>
       <c r="D182" s="0">
-        <v>0.020726085169733205</v>
+        <v>0.042382662019281363</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="B183" s="0">
         <v>245</v>
       </c>
       <c r="C183" s="0">
-        <v>1.1535458167330657</v>
+        <v>0.78793650793650793</v>
       </c>
       <c r="D183" s="0">
-        <v>0.023267507224244643</v>
+        <v>0.042102463902263111</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="B184" s="0">
         <v>545</v>
       </c>
       <c r="C184" s="0">
-        <v>1.6026190476190461</v>
+        <v>0.77126984126984122</v>
       </c>
       <c r="D184" s="0">
-        <v>0.021522843286915005</v>
+        <v>0.040059400655167034</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="B185" s="0">
         <v>605</v>
       </c>
       <c r="C185" s="0">
-        <v>1.6035714285714309</v>
+        <v>1.1621428571428554</v>
       </c>
       <c r="D185" s="0">
-        <v>0.032270378797774474</v>
+        <v>0.029982920579315907</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="B186" s="0">
         <v>185</v>
       </c>
       <c r="C186" s="0">
-        <v>1.1709126984126965</v>
+        <v>0.73976190476190529</v>
       </c>
       <c r="D186" s="0">
-        <v>0.043313463185111055</v>
+        <v>0.039989326976765181</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="B187" s="0">
         <v>245</v>
       </c>
       <c r="C187" s="0">
-        <v>1.1621428571428554</v>
+        <v>0.74416666666666687</v>
       </c>
       <c r="D187" s="0">
-        <v>0.028018410079053306</v>
+        <v>0.044089956937933703</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="B188" s="0">
         <v>545</v>
       </c>
       <c r="C188" s="0">
-        <v>1.1683333333333326</v>
+        <v>0.74577689243027867</v>
       </c>
       <c r="D188" s="0">
-        <v>0.039685014784000945</v>
+        <v>0.04454766013949988</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>420</v>
+        <v>780</v>
       </c>
       <c r="B189" s="0">
         <v>605</v>
       </c>
       <c r="C189" s="0">
-        <v>1.5992430278884484</v>
+        <v>1.155139442231075</v>
       </c>
       <c r="D189" s="0">
-        <v>0.025624689289730336</v>
+        <v>0.016428039386599022</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="B190" s="0">
         <v>185</v>
       </c>
       <c r="C190" s="0">
-        <v>1.1850597609561748</v>
+        <v>0.76107569721115498</v>
       </c>
       <c r="D190" s="0">
-        <v>0.046881727936826621</v>
+        <v>0.042095584649841256</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="B191" s="0">
         <v>245</v>
       </c>
       <c r="C191" s="0">
-        <v>1.1542629482071696</v>
+        <v>0.78414342629482092</v>
       </c>
       <c r="D191" s="0">
-        <v>0.0220307644368802</v>
+        <v>0.043574801739233962</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="B192" s="0">
         <v>545</v>
       </c>
       <c r="C192" s="0">
-        <v>1.1557142857142839</v>
+        <v>0.71617529880478059</v>
       </c>
       <c r="D192" s="0">
-        <v>0.01920443887220161</v>
+        <v>0.041140164649772076</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="B193" s="0">
         <v>605</v>
       </c>
       <c r="C193" s="0">
-        <v>1.5982470119521937</v>
+        <v>1.1301984126984128</v>
       </c>
       <c r="D193" s="0">
-        <v>0.026017585226839526</v>
+        <v>0.01790747349662114</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="B194" s="0">
         <v>185</v>
       </c>
       <c r="C194" s="0">
-        <v>1.1607171314741018</v>
+        <v>0.78896825396825421</v>
       </c>
       <c r="D194" s="0">
-        <v>0.030362537201931019</v>
+        <v>0.038597511739451223</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="B195" s="0">
         <v>245</v>
       </c>
       <c r="C195" s="0">
-        <v>0.78313492063492074</v>
+        <v>0.77338645418326668</v>
       </c>
       <c r="D195" s="0">
-        <v>0.040446876905245677</v>
+        <v>0.043681644380413255</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="B196" s="0">
         <v>545</v>
       </c>
       <c r="C196" s="0">
-        <v>1.1769841269841277</v>
+        <v>0.76757936507936519</v>
       </c>
       <c r="D196" s="0">
-        <v>0.015730288558042069</v>
+        <v>0.042726938641225412</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="B197" s="0">
         <v>605</v>
       </c>
       <c r="C197" s="0">
-        <v>1.1246825396825404</v>
+        <v>1.1464143426294819</v>
       </c>
       <c r="D197" s="0">
-        <v>0.019584794001319409</v>
+        <v>0.017637789925785331</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="B198" s="0">
         <v>185</v>
       </c>
       <c r="C198" s="0">
-        <v>0.77749003984063758</v>
+        <v>0.77685258964143411</v>
       </c>
       <c r="D198" s="0">
-        <v>0.039370990594578693</v>
+        <v>0.03948739271295245</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="B199" s="0">
         <v>245</v>
       </c>
       <c r="C199" s="0">
-        <v>0.77617529880478109</v>
+        <v>0.73792828685258971</v>
       </c>
       <c r="D199" s="0">
-        <v>0.04125667397416273</v>
+        <v>0.041139893493461886</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="B200" s="0">
         <v>545</v>
       </c>
       <c r="C200" s="0">
-        <v>1.1823015873015883</v>
+        <v>0.76071713147410358</v>
       </c>
       <c r="D200" s="0">
-        <v>0.019151844425036289</v>
+        <v>0.042505101638963823</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>600</v>
+        <v>960</v>
       </c>
       <c r="B201" s="0">
         <v>605</v>
       </c>
       <c r="C201" s="0">
-        <v>1.155338645418325</v>
+        <v>1.1319444444444444</v>
       </c>
       <c r="D201" s="0">
-        <v>0.019984615596947756</v>
+        <v>0.017233713626131159</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="B202" s="0">
         <v>185</v>
       </c>
       <c r="C202" s="0">
-        <v>0.76470119521912339</v>
+        <v>0.75472222222222196</v>
       </c>
       <c r="D202" s="0">
-        <v>0.042944270381108242</v>
+        <v>0.042270262853870214</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="B203" s="0">
         <v>245</v>
       </c>
       <c r="C203" s="0">
-        <v>0.78290836653386464</v>
+        <v>0.74442231075697218</v>
       </c>
       <c r="D203" s="0">
-        <v>0.037935571298203949</v>
+        <v>0.042444845861883476</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="B204" s="0">
         <v>545</v>
       </c>
       <c r="C204" s="0">
-        <v>0.93753968253968212</v>
+        <v>0.76988095238095222</v>
       </c>
       <c r="D204" s="0">
-        <v>0.17914443196116273</v>
+        <v>0.041749415081496953</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="B205" s="0">
         <v>605</v>
       </c>
       <c r="C205" s="0">
-        <v>1.1556573705179265</v>
+        <v>1.1452589641434261</v>
       </c>
       <c r="D205" s="0">
-        <v>0.019407888485308385</v>
+        <v>0.021508897445538858</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B206" s="0">
         <v>185</v>
       </c>
       <c r="C206" s="0">
-        <v>0.77509960159362545</v>
+        <v>0.76733067729083693</v>
       </c>
       <c r="D206" s="0">
-        <v>0.042382662019281363</v>
+        <v>0.041976734212411493</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B207" s="0">
         <v>245</v>
       </c>
       <c r="C207" s="0">
-        <v>0.78793650793650793</v>
+        <v>0.75773809523809477</v>
       </c>
       <c r="D207" s="0">
-        <v>0.042102463902263111</v>
+        <v>0.040564282479670359</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B208" s="0">
         <v>545</v>
       </c>
       <c r="C208" s="0">
-        <v>0.77126984126984122</v>
+        <v>0.77167330677290802</v>
       </c>
       <c r="D208" s="0">
-        <v>0.040059400655167034</v>
+        <v>0.040194388223003384</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B209" s="0">
         <v>605</v>
       </c>
       <c r="C209" s="0">
-        <v>1.1621428571428554</v>
+        <v>1.1291235059760965</v>
       </c>
       <c r="D209" s="0">
-        <v>0.029982920579315907</v>
+        <v>0.020823752910053575</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>780</v>
+        <v>1140</v>
       </c>
       <c r="B210" s="0">
         <v>185</v>
       </c>
       <c r="C210" s="0">
-        <v>0.73976190476190529</v>
+        <v>0.74583333333333335</v>
       </c>
       <c r="D210" s="0">
-        <v>0.039989326976765181</v>
+        <v>0.04437817381052285</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>780</v>
+        <v>1140</v>
       </c>
       <c r="B211" s="0">
         <v>245</v>
       </c>
       <c r="C211" s="0">
-        <v>0.74416666666666687</v>
+        <v>0.77396825396825386</v>
       </c>
       <c r="D211" s="0">
-        <v>0.044089956937933703</v>
+        <v>0.043494366811687002</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>780</v>
+        <v>1140</v>
       </c>
       <c r="B212" s="0">
         <v>545</v>
       </c>
       <c r="C212" s="0">
-        <v>0.74577689243027867</v>
+        <v>0.75362549800796752</v>
       </c>
       <c r="D212" s="0">
-        <v>0.04454766013949988</v>
+        <v>0.046069547287237375</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>780</v>
+        <v>1140</v>
       </c>
       <c r="B213" s="0">
         <v>605</v>
       </c>
       <c r="C213" s="0">
-        <v>1.155139442231075</v>
+        <v>1.1647410358565724</v>
       </c>
       <c r="D213" s="0">
-        <v>0.016428039386599022</v>
+        <v>0.032115925478221993</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="B214" s="0">
         <v>185</v>
       </c>
       <c r="C214" s="0">
-        <v>0.76107569721115498</v>
+        <v>0.74523809523809548</v>
       </c>
       <c r="D214" s="0">
-        <v>0.042095584649841256</v>
+        <v>0.042157252299658117</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="B215" s="0">
         <v>245</v>
       </c>
       <c r="C215" s="0">
-        <v>0.78414342629482092</v>
+        <v>0.77242063492063462</v>
       </c>
       <c r="D215" s="0">
-        <v>0.043574801739233962</v>
+        <v>0.044382591105305791</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="B216" s="0">
         <v>545</v>
       </c>
       <c r="C216" s="0">
-        <v>0.71617529880478059</v>
+        <v>0.77226190476190471</v>
       </c>
       <c r="D216" s="0">
-        <v>0.041140164649772076</v>
+        <v>0.041303980220007808</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="B217" s="0">
         <v>605</v>
       </c>
       <c r="C217" s="0">
-        <v>1.1301984126984128</v>
+        <v>1.1341832669322709</v>
       </c>
       <c r="D217" s="0">
-        <v>0.01790747349662114</v>
+        <v>0.022477328108217405</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>900</v>
+        <v>-600</v>
       </c>
       <c r="B218" s="0">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C218" s="0">
-        <v>0.78896825396825421</v>
+        <v>-0.067667984189723321</v>
       </c>
       <c r="D218" s="0">
-        <v>0.038597511739451223</v>
+        <v>0.15258258381486006</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>900</v>
+        <v>-600</v>
       </c>
       <c r="B219" s="0">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C219" s="0">
-        <v>0.77338645418326668</v>
+        <v>-0.034584980237154166</v>
       </c>
       <c r="D219" s="0">
-        <v>0.043681644380413255</v>
+        <v>0.13383064136124545</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>900</v>
+        <v>-600</v>
       </c>
       <c r="B220" s="0">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="C220" s="0">
-        <v>0.76757936507936519</v>
+        <v>0.82293650793650774</v>
       </c>
       <c r="D220" s="0">
-        <v>0.042726938641225412</v>
+        <v>0.056843497461830768</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>900</v>
+        <v>-600</v>
       </c>
       <c r="B221" s="0">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C221" s="0">
-        <v>1.1464143426294819</v>
+        <v>0.60382470119521892</v>
       </c>
       <c r="D221" s="0">
-        <v>0.017637789925785331</v>
+        <v>0.15505519387434386</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>960</v>
+        <v>-540</v>
       </c>
       <c r="B222" s="0">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C222" s="0">
-        <v>0.77685258964143411</v>
+        <v>0.43134920634920665</v>
       </c>
       <c r="D222" s="0">
-        <v>0.03948739271295245</v>
+        <v>0.07789924204841929</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>960</v>
+        <v>-540</v>
       </c>
       <c r="B223" s="0">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C223" s="0">
-        <v>0.73792828685258971</v>
+        <v>0.38478087649402426</v>
       </c>
       <c r="D223" s="0">
-        <v>0.041139893493461886</v>
+        <v>0.12571178064457078</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>960</v>
+        <v>-540</v>
       </c>
       <c r="B224" s="0">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="C224" s="0">
-        <v>0.76071713147410358</v>
+        <v>0.85195219123506016</v>
       </c>
       <c r="D224" s="0">
-        <v>0.042505101638963823</v>
+        <v>0.047839039551179158</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>960</v>
+        <v>-540</v>
       </c>
       <c r="B225" s="0">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C225" s="0">
-        <v>1.1319444444444444</v>
+        <v>0.91151394422310716</v>
       </c>
       <c r="D225" s="0">
-        <v>0.017233713626131159</v>
+        <v>0.15676765866970424</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>1020</v>
+        <v>-480</v>
       </c>
       <c r="B226" s="0">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C226" s="0">
-        <v>0.75472222222222196</v>
+        <v>0.42738095238095236</v>
       </c>
       <c r="D226" s="0">
-        <v>0.042270262853870214</v>
+        <v>0.07184732120287847</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>1020</v>
+        <v>-480</v>
       </c>
       <c r="B227" s="0">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C227" s="0">
-        <v>0.74442231075697218</v>
+        <v>0.40135458167330706</v>
       </c>
       <c r="D227" s="0">
-        <v>0.042444845861883476</v>
+        <v>0.068361961418059836</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>1020</v>
+        <v>-480</v>
       </c>
       <c r="B228" s="0">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="C228" s="0">
-        <v>0.76988095238095222</v>
+        <v>0.55996015936254961</v>
       </c>
       <c r="D228" s="0">
-        <v>0.041749415081496953</v>
+        <v>0.16897928395627226</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>1020</v>
+        <v>-480</v>
       </c>
       <c r="B229" s="0">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C229" s="0">
-        <v>1.1452589641434261</v>
+        <v>1.1966666666666657</v>
       </c>
       <c r="D229" s="0">
-        <v>0.021508897445538858</v>
+        <v>0.062210284695638121</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>1080</v>
+        <v>-420</v>
       </c>
       <c r="B230" s="0">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C230" s="0">
-        <v>0.76733067729083693</v>
+        <v>0.42468253968253961</v>
       </c>
       <c r="D230" s="0">
-        <v>0.041976734212411493</v>
+        <v>0.040053480342514804</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>1080</v>
+        <v>-420</v>
       </c>
       <c r="B231" s="0">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C231" s="0">
-        <v>0.75773809523809477</v>
+        <v>0.45111111111111069</v>
       </c>
       <c r="D231" s="0">
-        <v>0.040564282479670359</v>
+        <v>0.082743998443644148</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>1080</v>
+        <v>-420</v>
       </c>
       <c r="B232" s="0">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="C232" s="0">
-        <v>0.77167330677290802</v>
+        <v>1.2119047619047632</v>
       </c>
       <c r="D232" s="0">
-        <v>0.040194388223003384</v>
+        <v>0.076207039083795725</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>1080</v>
+        <v>-420</v>
       </c>
       <c r="B233" s="0">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C233" s="0">
-        <v>1.1291235059760965</v>
+        <v>1.1894841269841283</v>
       </c>
       <c r="D233" s="0">
-        <v>0.020823752910053575</v>
+        <v>0.053388485877897005</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>1140</v>
+        <v>-360</v>
       </c>
       <c r="B234" s="0">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C234" s="0">
-        <v>0.74583333333333335</v>
+        <v>0.34119047619047621</v>
       </c>
       <c r="D234" s="0">
-        <v>0.04437817381052285</v>
+        <v>0.12377918356265591</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>1140</v>
+        <v>-360</v>
       </c>
       <c r="B235" s="0">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C235" s="0">
-        <v>0.77396825396825386</v>
+        <v>0.42079365079365105</v>
       </c>
       <c r="D235" s="0">
-        <v>0.043494366811687002</v>
+        <v>0.066002573589846847</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>1140</v>
+        <v>-360</v>
       </c>
       <c r="B236" s="0">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="C236" s="0">
-        <v>0.75362549800796752</v>
+        <v>1.206269841269842</v>
       </c>
       <c r="D236" s="0">
-        <v>0.046069547287237375</v>
+        <v>0.05562730458249928</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>1140</v>
+        <v>-360</v>
       </c>
       <c r="B237" s="0">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C237" s="0">
-        <v>1.1647410358565724</v>
+        <v>1.1646031746031755</v>
       </c>
       <c r="D237" s="0">
-        <v>0.032115925478221993</v>
+        <v>0.087019261444761173</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="B238" s="0">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C238" s="0">
-        <v>0.74523809523809548</v>
+        <v>0.82079365079365119</v>
       </c>
       <c r="D238" s="0">
-        <v>0.042157252299658117</v>
+        <v>0.050378696164708914</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="B239" s="0">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="C239" s="0">
-        <v>0.77242063492063462</v>
+        <v>0.83123015873015904</v>
       </c>
       <c r="D239" s="0">
-        <v>0.044382591105305791</v>
+        <v>0.045826567686777481</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="B240" s="0">
-        <v>545</v>
+        <v>665</v>
       </c>
       <c r="C240" s="0">
-        <v>0.77226190476190471</v>
+        <v>1.1710714285714294</v>
       </c>
       <c r="D240" s="0">
-        <v>0.041303980220007808</v>
+        <v>0.07781402679516429</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>1200</v>
+        <v>-300</v>
       </c>
       <c r="B241" s="0">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C241" s="0">
-        <v>1.1341832669322709</v>
+        <v>1.6331746031746017</v>
       </c>
       <c r="D241" s="0">
-        <v>0.022477328108217405</v>
+        <v>0.051125200491928736</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>-600</v>
+        <v>-240</v>
       </c>
       <c r="B242" s="0">
         <v>305</v>
       </c>
       <c r="C242" s="0">
-        <v>-0.067667984189723321</v>
+        <v>0.82358565737051781</v>
       </c>
       <c r="D242" s="0">
-        <v>0.15258258381486006</v>
+        <v>0.047386618717377732</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>-600</v>
+        <v>-240</v>
       </c>
       <c r="B243" s="0">
         <v>365</v>
       </c>
       <c r="C243" s="0">
-        <v>-0.034584980237154166</v>
+        <v>0.81358565737051791</v>
       </c>
       <c r="D243" s="0">
-        <v>0.13383064136124545</v>
+        <v>0.056581725260601019</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>-600</v>
+        <v>-240</v>
       </c>
       <c r="B244" s="0">
         <v>665</v>
       </c>
       <c r="C244" s="0">
-        <v>0.82293650793650774</v>
+        <v>1.189325396825397</v>
       </c>
       <c r="D244" s="0">
-        <v>0.056843497461830768</v>
+        <v>0.080713583365394789</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>-600</v>
+        <v>-240</v>
       </c>
       <c r="B245" s="0">
         <v>725</v>
       </c>
       <c r="C245" s="0">
-        <v>0.60382470119521892</v>
+        <v>1.6461111111111102</v>
       </c>
       <c r="D245" s="0">
-        <v>0.15505519387434386</v>
+        <v>0.035971928458278804</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>-540</v>
+        <v>-180</v>
       </c>
       <c r="B246" s="0">
         <v>305</v>
       </c>
       <c r="C246" s="0">
-        <v>0.43134920634920665</v>
+        <v>0.69857142857142851</v>
       </c>
       <c r="D246" s="0">
-        <v>0.07789924204841929</v>
+        <v>0.16655025340570587</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>-540</v>
+        <v>-180</v>
       </c>
       <c r="B247" s="0">
         <v>365</v>
       </c>
       <c r="C247" s="0">
-        <v>0.38478087649402426</v>
+        <v>0.81059523809523759</v>
       </c>
       <c r="D247" s="0">
-        <v>0.12571178064457078</v>
+        <v>0.12717291792253227</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>-540</v>
+        <v>-180</v>
       </c>
       <c r="B248" s="0">
         <v>665</v>
       </c>
       <c r="C248" s="0">
-        <v>0.85195219123506016</v>
+        <v>1.6331474103585646</v>
       </c>
       <c r="D248" s="0">
-        <v>0.047839039551179158</v>
+        <v>0.045791420411109014</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>-540</v>
+        <v>-180</v>
       </c>
       <c r="B249" s="0">
         <v>725</v>
       </c>
       <c r="C249" s="0">
-        <v>0.91151394422310716</v>
+        <v>1.5141269841269849</v>
       </c>
       <c r="D249" s="0">
-        <v>0.15676765866970424</v>
+        <v>0.15466591597303078</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>-480</v>
+        <v>-120</v>
       </c>
       <c r="B250" s="0">
         <v>305</v>
       </c>
       <c r="C250" s="0">
-        <v>0.42738095238095236</v>
+        <v>1.1874900398406385</v>
       </c>
       <c r="D250" s="0">
-        <v>0.07184732120287847</v>
+        <v>0.046256620071060191</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>-480</v>
+        <v>-120</v>
       </c>
       <c r="B251" s="0">
         <v>365</v>
       </c>
       <c r="C251" s="0">
-        <v>0.40135458167330706</v>
+        <v>1.2054761904761915</v>
       </c>
       <c r="D251" s="0">
-        <v>0.068361961418059836</v>
+        <v>0.051504954975451919</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>-480</v>
+        <v>-120</v>
       </c>
       <c r="B252" s="0">
         <v>665</v>
       </c>
       <c r="C252" s="0">
-        <v>0.55996015936254961</v>
+        <v>1.6225793650793636</v>
       </c>
       <c r="D252" s="0">
-        <v>0.16897928395627226</v>
+        <v>0.076643309318819797</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>-480</v>
+        <v>-120</v>
       </c>
       <c r="B253" s="0">
         <v>725</v>
       </c>
       <c r="C253" s="0">
-        <v>1.1966666666666657</v>
+        <v>2.0056573705179273</v>
       </c>
       <c r="D253" s="0">
-        <v>0.062210284695638121</v>
+        <v>0.13488908827424909</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>-420</v>
+        <v>-60</v>
       </c>
       <c r="B254" s="0">
         <v>305</v>
       </c>
       <c r="C254" s="0">
-        <v>0.42468253968253961</v>
+        <v>1.1570916334661356</v>
       </c>
       <c r="D254" s="0">
-        <v>0.040053480342514804</v>
+        <v>0.061050041521043312</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>-420</v>
+        <v>-60</v>
       </c>
       <c r="B255" s="0">
         <v>365</v>
       </c>
       <c r="C255" s="0">
-        <v>0.45111111111111069</v>
+        <v>1.1888888888888902</v>
       </c>
       <c r="D255" s="0">
-        <v>0.082743998443644148</v>
+        <v>0.040400824854942251</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>-420</v>
+        <v>-60</v>
       </c>
       <c r="B256" s="0">
         <v>665</v>
       </c>
       <c r="C256" s="0">
-        <v>1.2119047619047632</v>
+        <v>2.0403585657370513</v>
       </c>
       <c r="D256" s="0">
-        <v>0.076207039083795725</v>
+        <v>0.058571929423015097</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>-420</v>
+        <v>-60</v>
       </c>
       <c r="B257" s="0">
         <v>725</v>
       </c>
       <c r="C257" s="0">
-        <v>1.1894841269841283</v>
+        <v>2.0459523809523819</v>
       </c>
       <c r="D257" s="0">
-        <v>0.053388485877897005</v>
+        <v>0.033415853084073285</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>-360</v>
+        <v>240</v>
       </c>
       <c r="B258" s="0">
         <v>305</v>
       </c>
       <c r="C258" s="0">
-        <v>0.34119047619047621</v>
+        <v>1.6297609561752977</v>
       </c>
       <c r="D258" s="0">
-        <v>0.12377918356265591</v>
+        <v>0.054500849805136725</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>-360</v>
+        <v>240</v>
       </c>
       <c r="B259" s="0">
         <v>365</v>
       </c>
       <c r="C259" s="0">
-        <v>0.42079365079365105</v>
+        <v>1.5935458167330696</v>
       </c>
       <c r="D259" s="0">
-        <v>0.066002573589846847</v>
+        <v>0.046636647525634602</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>-360</v>
+        <v>240</v>
       </c>
       <c r="B260" s="0">
         <v>665</v>
       </c>
       <c r="C260" s="0">
-        <v>1.206269841269842</v>
+        <v>2.039642857142856</v>
       </c>
       <c r="D260" s="0">
-        <v>0.05562730458249928</v>
+        <v>0.05042717352037903</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>-360</v>
+        <v>240</v>
       </c>
       <c r="B261" s="0">
         <v>725</v>
       </c>
       <c r="C261" s="0">
-        <v>1.1646031746031755</v>
+        <v>1.838764940239046</v>
       </c>
       <c r="D261" s="0">
-        <v>0.087019261444761173</v>
+        <v>0.18528806903278047</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="B262" s="0">
         <v>305</v>
       </c>
       <c r="C262" s="0">
-        <v>0.82079365079365119</v>
+        <v>1.6004780876494042</v>
       </c>
       <c r="D262" s="0">
-        <v>0.050378696164708914</v>
+        <v>0.037434883703950365</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="B263" s="0">
         <v>365</v>
       </c>
       <c r="C263" s="0">
-        <v>0.83123015873015904</v>
+        <v>1.6151984126984114</v>
       </c>
       <c r="D263" s="0">
-        <v>0.045826567686777481</v>
+        <v>0.030695138886398535</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="B264" s="0">
         <v>665</v>
       </c>
       <c r="C264" s="0">
-        <v>1.1710714285714294</v>
+        <v>2.0416334661354596</v>
       </c>
       <c r="D264" s="0">
-        <v>0.07781402679516429</v>
+        <v>0.044209966246739549</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="B265" s="0">
         <v>725</v>
       </c>
       <c r="C265" s="0">
-        <v>1.6331746031746017</v>
+        <v>1.8980158730158743</v>
       </c>
       <c r="D265" s="0">
-        <v>0.051125200491928736</v>
+        <v>0.14893791236308995</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>-240</v>
+        <v>360</v>
       </c>
       <c r="B266" s="0">
         <v>305</v>
       </c>
       <c r="C266" s="0">
-        <v>0.82358565737051781</v>
+        <v>1.589603174603176</v>
       </c>
       <c r="D266" s="0">
-        <v>0.047386618717377732</v>
+        <v>0.044585756817590076</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>-240</v>
+        <v>360</v>
       </c>
       <c r="B267" s="0">
         <v>365</v>
       </c>
       <c r="C267" s="0">
-        <v>0.81358565737051791</v>
+        <v>1.1952191235059764</v>
       </c>
       <c r="D267" s="0">
-        <v>0.056581725260601019</v>
+        <v>0.050226007136031522</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>-240</v>
+        <v>360</v>
       </c>
       <c r="B268" s="0">
         <v>665</v>
       </c>
       <c r="C268" s="0">
-        <v>1.189325396825397</v>
+        <v>2.0033730158730165</v>
       </c>
       <c r="D268" s="0">
-        <v>0.080713583365394789</v>
+        <v>0.047839078547633009</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>-240</v>
+        <v>360</v>
       </c>
       <c r="B269" s="0">
         <v>725</v>
       </c>
       <c r="C269" s="0">
-        <v>1.6461111111111102</v>
+        <v>1.9784126984127008</v>
       </c>
       <c r="D269" s="0">
-        <v>0.035971928458278804</v>
+        <v>0.065770489494203208</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>-180</v>
+        <v>420</v>
       </c>
       <c r="B270" s="0">
         <v>305</v>
       </c>
       <c r="C270" s="0">
-        <v>0.69857142857142851</v>
+        <v>1.2273809523809525</v>
       </c>
       <c r="D270" s="0">
-        <v>0.16655025340570587</v>
+        <v>0.050953905760370982</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>-180</v>
+        <v>420</v>
       </c>
       <c r="B271" s="0">
         <v>365</v>
       </c>
       <c r="C271" s="0">
-        <v>0.81059523809523759</v>
+        <v>0.98527777777777692</v>
       </c>
       <c r="D271" s="0">
-        <v>0.12717291792253227</v>
+        <v>0.18154363074140376</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>-180</v>
+        <v>420</v>
       </c>
       <c r="B272" s="0">
         <v>665</v>
       </c>
       <c r="C272" s="0">
-        <v>1.6331474103585646</v>
+        <v>1.5857142857142843</v>
       </c>
       <c r="D272" s="0">
-        <v>0.045791420411109014</v>
+        <v>0.020644151479884455</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>-180</v>
+        <v>420</v>
       </c>
       <c r="B273" s="0">
         <v>725</v>
       </c>
       <c r="C273" s="0">
-        <v>1.5141269841269849</v>
+        <v>1.9876494023904405</v>
       </c>
       <c r="D273" s="0">
-        <v>0.15466591597303078</v>
+        <v>0.054277551433732127</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>-120</v>
+        <v>480</v>
       </c>
       <c r="B274" s="0">
         <v>305</v>
       </c>
       <c r="C274" s="0">
-        <v>1.1874900398406385</v>
+        <v>1.0029482071713145</v>
       </c>
       <c r="D274" s="0">
-        <v>0.046256620071060191</v>
+        <v>0.16485894973210558</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>-120</v>
+        <v>480</v>
       </c>
       <c r="B275" s="0">
         <v>365</v>
       </c>
       <c r="C275" s="0">
-        <v>1.2054761904761915</v>
+        <v>1.1111155378486051</v>
       </c>
       <c r="D275" s="0">
-        <v>0.051504954975451919</v>
+        <v>0.10225238675752056</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>-120</v>
+        <v>480</v>
       </c>
       <c r="B276" s="0">
         <v>665</v>
       </c>
       <c r="C276" s="0">
-        <v>1.6225793650793636</v>
+        <v>1.5966269841269829</v>
       </c>
       <c r="D276" s="0">
-        <v>0.076643309318819797</v>
+        <v>0.064078914759573474</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>-120</v>
+        <v>480</v>
       </c>
       <c r="B277" s="0">
         <v>725</v>
       </c>
       <c r="C277" s="0">
-        <v>2.0056573705179273</v>
+        <v>1.993147410358568</v>
       </c>
       <c r="D277" s="0">
-        <v>0.13488908827424909</v>
+        <v>0.04269958059825571</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>-60</v>
+        <v>540</v>
       </c>
       <c r="B278" s="0">
         <v>305</v>
       </c>
       <c r="C278" s="0">
-        <v>1.1570916334661356</v>
+        <v>1.1329083665338628</v>
       </c>
       <c r="D278" s="0">
-        <v>0.061050041521043312</v>
+        <v>0.061747126003734894</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>-60</v>
+        <v>540</v>
       </c>
       <c r="B279" s="0">
         <v>365</v>
       </c>
       <c r="C279" s="0">
-        <v>1.1888888888888902</v>
+        <v>1.1512698412698394</v>
       </c>
       <c r="D279" s="0">
-        <v>0.040400824854942251</v>
+        <v>0.052552142605273321</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>-60</v>
+        <v>540</v>
       </c>
       <c r="B280" s="0">
         <v>665</v>
       </c>
       <c r="C280" s="0">
-        <v>2.0403585657370513</v>
+        <v>1.6131746031746022</v>
       </c>
       <c r="D280" s="0">
-        <v>0.058571929423015097</v>
+        <v>0.055654752393531785</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>-60</v>
+        <v>540</v>
       </c>
       <c r="B281" s="0">
         <v>725</v>
       </c>
       <c r="C281" s="0">
-        <v>2.0459523809523819</v>
+        <v>1.6031349206349192</v>
       </c>
       <c r="D281" s="0">
-        <v>0.033415853084073285</v>
+        <v>0.10935201050728646</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B282" s="0">
         <v>305</v>
       </c>
       <c r="C282" s="0">
-        <v>1.1084126984126994</v>
+        <v>1.1359362549800796</v>
       </c>
       <c r="D282" s="0">
-        <v>0.15434432814631235</v>
+        <v>0.048582094647294939</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B283" s="0">
         <v>365</v>
       </c>
       <c r="C283" s="0">
-        <v>1.1083333333333338</v>
+        <v>1.1460956175298787</v>
       </c>
       <c r="D283" s="0">
-        <v>0.14601888214961489</v>
+        <v>0.046843300702631242</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B284" s="0">
         <v>665</v>
       </c>
       <c r="C284" s="0">
-        <v>2.0371713147410344</v>
+        <v>1.6070238095238083</v>
       </c>
       <c r="D284" s="0">
-        <v>0.039572295029029425</v>
+        <v>0.046873052985555372</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B285" s="0">
         <v>725</v>
       </c>
       <c r="C285" s="0">
-        <v>1.8618253968253962</v>
+        <v>1.362589641434262</v>
       </c>
       <c r="D285" s="0">
-        <v>0.17951195809040549</v>
+        <v>0.16036978185515788</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="B286" s="0">
         <v>305</v>
       </c>
       <c r="C286" s="0">
-        <v>1.2840873015873024</v>
+        <v>1.1788446215139445</v>
       </c>
       <c r="D286" s="0">
-        <v>0.081809468650132722</v>
+        <v>0.064880349574861065</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="B287" s="0">
         <v>365</v>
       </c>
       <c r="C287" s="0">
-        <v>1.258611111111112</v>
+        <v>1.0099203187250996</v>
       </c>
       <c r="D287" s="0">
-        <v>0.10812074349936801</v>
+        <v>0.17700167690024293</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="B288" s="0">
         <v>665</v>
       </c>
       <c r="C288" s="0">
-        <v>2.0251190476190462</v>
+        <v>1.5598015873015856</v>
       </c>
       <c r="D288" s="0">
-        <v>0.070696490290030792</v>
+        <v>0.053621444220936079</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="B289" s="0">
         <v>725</v>
       </c>
       <c r="C289" s="0">
-        <v>1.8798412698412701</v>
+        <v>1.4874501992031866</v>
       </c>
       <c r="D289" s="0">
-        <v>0.17901449618340809</v>
+        <v>0.15265867977275371</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="B290" s="0">
         <v>305</v>
       </c>
       <c r="C290" s="0">
-        <v>1.6376494023904373</v>
+        <v>1.1443027888446218</v>
       </c>
       <c r="D290" s="0">
-        <v>0.033461210223801434</v>
+        <v>0.057666384941239671</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="B291" s="0">
         <v>365</v>
       </c>
       <c r="C291" s="0">
-        <v>1.6390836653386447</v>
+        <v>0.77944444444444416</v>
       </c>
       <c r="D291" s="0">
-        <v>0.038308706218189555</v>
+        <v>0.041530587883739506</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="B292" s="0">
         <v>665</v>
       </c>
       <c r="C292" s="0">
-        <v>1.9863095238095247</v>
+        <v>1.5896031746031734</v>
       </c>
       <c r="D292" s="0">
-        <v>0.10931273636336458</v>
+        <v>0.044181819080840241</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="B293" s="0">
         <v>725</v>
       </c>
       <c r="C293" s="0">
-        <v>2.0166666666666666</v>
+        <v>1.5067063492063477</v>
       </c>
       <c r="D293" s="0">
-        <v>0.035716903717363038</v>
+        <v>0.14003935516626584</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="B294" s="0">
         <v>305</v>
       </c>
       <c r="C294" s="0">
-        <v>1.6297609561752977</v>
+        <v>1.1180952380952383</v>
       </c>
       <c r="D294" s="0">
-        <v>0.054500849805136725</v>
+        <v>0.054818996412486123</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="B295" s="0">
         <v>365</v>
       </c>
       <c r="C295" s="0">
-        <v>1.5935458167330696</v>
+        <v>0.62650793650793668</v>
       </c>
       <c r="D295" s="0">
-        <v>0.046636647525634602</v>
+        <v>0.16658662468042942</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="B296" s="0">
         <v>665</v>
       </c>
       <c r="C296" s="0">
-        <v>2.039642857142856</v>
+        <v>1.5333864541832658</v>
       </c>
       <c r="D296" s="0">
-        <v>0.05042717352037903</v>
+        <v>0.065348956041981959</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="B297" s="0">
         <v>725</v>
       </c>
       <c r="C297" s="0">
-        <v>1.838764940239046</v>
+        <v>1.5617529880478065</v>
       </c>
       <c r="D297" s="0">
-        <v>0.18528806903278047</v>
+        <v>0.079659994608560256</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="B298" s="0">
         <v>305</v>
       </c>
       <c r="C298" s="0">
-        <v>1.6004780876494042</v>
+        <v>1.1219123505976101</v>
       </c>
       <c r="D298" s="0">
-        <v>0.037434883703950365</v>
+        <v>0.055305770827758914</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="B299" s="0">
         <v>365</v>
       </c>
       <c r="C299" s="0">
-        <v>1.6151984126984114</v>
+        <v>0.56764940239043815</v>
       </c>
       <c r="D299" s="0">
-        <v>0.030695138886398535</v>
+        <v>0.17908783484547861</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="B300" s="0">
         <v>665</v>
       </c>
       <c r="C300" s="0">
-        <v>2.0416334661354596</v>
+        <v>1.5328286852589645</v>
       </c>
       <c r="D300" s="0">
-        <v>0.044209966246739549</v>
+        <v>0.038141401834024674</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="B301" s="0">
         <v>725</v>
       </c>
       <c r="C301" s="0">
-        <v>1.8980158730158743</v>
+        <v>1.5600396825396834</v>
       </c>
       <c r="D301" s="0">
-        <v>0.14893791236308995</v>
+        <v>0.056656496347593441</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="B302" s="0">
         <v>305</v>
       </c>
       <c r="C302" s="0">
-        <v>1.589603174603176</v>
+        <v>1.1721825396825392</v>
       </c>
       <c r="D302" s="0">
-        <v>0.044585756817590076</v>
+        <v>0.062551957787157941</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="B303" s="0">
         <v>365</v>
       </c>
       <c r="C303" s="0">
-        <v>1.1952191235059764</v>
+        <v>0.76904382470119537</v>
       </c>
       <c r="D303" s="0">
-        <v>0.050226007136031522</v>
+        <v>0.052648666381145348</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="B304" s="0">
         <v>665</v>
       </c>
       <c r="C304" s="0">
-        <v>2.0033730158730165</v>
+        <v>1.578690476190475</v>
       </c>
       <c r="D304" s="0">
-        <v>0.047839078547633009</v>
+        <v>0.022623530494669787</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="B305" s="0">
         <v>725</v>
       </c>
       <c r="C305" s="0">
-        <v>1.9784126984127008</v>
+        <v>1.4562948207171298</v>
       </c>
       <c r="D305" s="0">
-        <v>0.065770489494203208</v>
+        <v>0.1654019852754729</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>420</v>
+        <v>960</v>
       </c>
       <c r="B306" s="0">
         <v>305</v>
       </c>
       <c r="C306" s="0">
-        <v>1.2273809523809525</v>
+        <v>1.1489641434262945</v>
       </c>
       <c r="D306" s="0">
-        <v>0.050953905760370982</v>
+        <v>0.050877526562946682</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>420</v>
+        <v>960</v>
       </c>
       <c r="B307" s="0">
         <v>365</v>
       </c>
       <c r="C307" s="0">
-        <v>0.98527777777777692</v>
+        <v>0.74832669322709222</v>
       </c>
       <c r="D307" s="0">
-        <v>0.18154363074140376</v>
+        <v>0.041890199863709336</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>420</v>
+        <v>960</v>
       </c>
       <c r="B308" s="0">
         <v>665</v>
       </c>
       <c r="C308" s="0">
-        <v>1.5857142857142843</v>
+        <v>1.5704780876494004</v>
       </c>
       <c r="D308" s="0">
-        <v>0.020644151479884455</v>
+        <v>0.022085527340959841</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>420</v>
+        <v>960</v>
       </c>
       <c r="B309" s="0">
         <v>725</v>
       </c>
       <c r="C309" s="0">
-        <v>1.9876494023904405</v>
+        <v>1.3400793650793648</v>
       </c>
       <c r="D309" s="0">
-        <v>0.054277551433732127</v>
+        <v>0.14883342399609051</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>480</v>
+        <v>1020</v>
       </c>
       <c r="B310" s="0">
         <v>305</v>
       </c>
       <c r="C310" s="0">
-        <v>1.0029482071713145</v>
+        <v>1.1284523809523805</v>
       </c>
       <c r="D310" s="0">
-        <v>0.16485894973210558</v>
+        <v>0.063292668349647252</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>480</v>
+        <v>1020</v>
       </c>
       <c r="B311" s="0">
         <v>365</v>
       </c>
       <c r="C311" s="0">
-        <v>1.1111155378486051</v>
+        <v>0.56354581673306803</v>
       </c>
       <c r="D311" s="0">
-        <v>0.10225238675752056</v>
+        <v>0.18151742861893536</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>480</v>
+        <v>1020</v>
       </c>
       <c r="B312" s="0">
         <v>665</v>
       </c>
       <c r="C312" s="0">
-        <v>1.5966269841269829</v>
+        <v>1.576388888888888</v>
       </c>
       <c r="D312" s="0">
-        <v>0.064078914759573474</v>
+        <v>0.04810404928201209</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>480</v>
+        <v>1020</v>
       </c>
       <c r="B313" s="0">
         <v>725</v>
       </c>
       <c r="C313" s="0">
-        <v>1.993147410358568</v>
+        <v>1.5643824701195195</v>
       </c>
       <c r="D313" s="0">
-        <v>0.04269958059825571</v>
+        <v>0.10574269304057894</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="B314" s="0">
         <v>305</v>
       </c>
       <c r="C314" s="0">
-        <v>1.1329083665338628</v>
+        <v>1.1454980079681276</v>
       </c>
       <c r="D314" s="0">
-        <v>0.061747126003734894</v>
+        <v>0.046450522020919593</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="B315" s="0">
         <v>365</v>
       </c>
       <c r="C315" s="0">
-        <v>1.1512698412698394</v>
+        <v>0.76932539682539669</v>
       </c>
       <c r="D315" s="0">
-        <v>0.052552142605273321</v>
+        <v>0.042622465573392686</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="B316" s="0">
         <v>665</v>
       </c>
       <c r="C316" s="0">
-        <v>1.6131746031746022</v>
+        <v>1.5977689243027891</v>
       </c>
       <c r="D316" s="0">
-        <v>0.055654752393531785</v>
+        <v>0.028882562047682813</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="B317" s="0">
         <v>725</v>
       </c>
       <c r="C317" s="0">
-        <v>1.6031349206349192</v>
+        <v>1.5593227091633457</v>
       </c>
       <c r="D317" s="0">
-        <v>0.10935201050728646</v>
+        <v>0.069327768190178093</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>600</v>
+        <v>1140</v>
       </c>
       <c r="B318" s="0">
         <v>305</v>
       </c>
       <c r="C318" s="0">
-        <v>1.1359362549800796</v>
+        <v>1.1240873015873003</v>
       </c>
       <c r="D318" s="0">
-        <v>0.048582094647294939</v>
+        <v>0.042767325622450739</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>600</v>
+        <v>1140</v>
       </c>
       <c r="B319" s="0">
         <v>365</v>
       </c>
       <c r="C319" s="0">
-        <v>1.1460956175298787</v>
+        <v>1.0110317460317457</v>
       </c>
       <c r="D319" s="0">
-        <v>0.046843300702631242</v>
+        <v>0.18660023684487828</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>600</v>
+        <v>1140</v>
       </c>
       <c r="B320" s="0">
         <v>665</v>
       </c>
       <c r="C320" s="0">
-        <v>1.6070238095238083</v>
+        <v>1.5602390438247009</v>
       </c>
       <c r="D320" s="0">
-        <v>0.046873052985555372</v>
+        <v>0.043108498344086026</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>600</v>
+        <v>1140</v>
       </c>
       <c r="B321" s="0">
         <v>725</v>
       </c>
       <c r="C321" s="0">
-        <v>1.362589641434262</v>
+        <v>1.5774103585657355</v>
       </c>
       <c r="D321" s="0">
-        <v>0.16036978185515788</v>
+        <v>0.044668410899324759</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>660</v>
+        <v>1200</v>
       </c>
       <c r="B322" s="0">
         <v>305</v>
       </c>
       <c r="C322" s="0">
-        <v>1.1788446215139445</v>
+        <v>1.129484126984126</v>
       </c>
       <c r="D322" s="0">
-        <v>0.064880349574861065</v>
+        <v>0.068879273578609068</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>660</v>
+        <v>1200</v>
       </c>
       <c r="B323" s="0">
         <v>365</v>
       </c>
       <c r="C323" s="0">
-        <v>1.0099203187250996</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D323" s="0">
-        <v>0.17700167690024293</v>
+        <v>0.14498110881197801</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>660</v>
+        <v>1200</v>
       </c>
       <c r="B324" s="0">
         <v>665</v>
       </c>
       <c r="C324" s="0">
-        <v>1.5598015873015856</v>
+        <v>1.5880555555555538</v>
       </c>
       <c r="D324" s="0">
-        <v>0.053621444220936079</v>
+        <v>0.032770311497243666</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>660</v>
+        <v>1200</v>
       </c>
       <c r="B325" s="0">
         <v>725</v>
       </c>
       <c r="C325" s="0">
-        <v>1.4874501992031866</v>
+        <v>1.5591235059760966</v>
       </c>
       <c r="D325" s="0">
-        <v>0.15265867977275371</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="0">
-        <v>720</v>
-      </c>
-      <c r="B326" s="0">
-        <v>305</v>
-      </c>
-      <c r="C326" s="0">
-        <v>1.1443027888446218</v>
-      </c>
-      <c r="D326" s="0">
-        <v>0.057666384941239671</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="0">
-        <v>720</v>
-      </c>
-      <c r="B327" s="0">
-        <v>365</v>
-      </c>
-      <c r="C327" s="0">
-        <v>0.77944444444444416</v>
-      </c>
-      <c r="D327" s="0">
-        <v>0.041530587883739506</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="0">
-        <v>720</v>
-      </c>
-      <c r="B328" s="0">
-        <v>665</v>
-      </c>
-      <c r="C328" s="0">
-        <v>1.5896031746031734</v>
-      </c>
-      <c r="D328" s="0">
-        <v>0.044181819080840241</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="0">
-        <v>720</v>
-      </c>
-      <c r="B329" s="0">
-        <v>725</v>
-      </c>
-      <c r="C329" s="0">
-        <v>1.5067063492063477</v>
-      </c>
-      <c r="D329" s="0">
-        <v>0.14003935516626584</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="0">
-        <v>780</v>
-      </c>
-      <c r="B330" s="0">
-        <v>305</v>
-      </c>
-      <c r="C330" s="0">
-        <v>1.1180952380952383</v>
-      </c>
-      <c r="D330" s="0">
-        <v>0.054818996412486123</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="0">
-        <v>780</v>
-      </c>
-      <c r="B331" s="0">
-        <v>365</v>
-      </c>
-      <c r="C331" s="0">
-        <v>0.62650793650793668</v>
-      </c>
-      <c r="D331" s="0">
-        <v>0.16658662468042942</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="0">
-        <v>780</v>
-      </c>
-      <c r="B332" s="0">
-        <v>665</v>
-      </c>
-      <c r="C332" s="0">
-        <v>1.5333864541832658</v>
-      </c>
-      <c r="D332" s="0">
-        <v>0.065348956041981959</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="0">
-        <v>780</v>
-      </c>
-      <c r="B333" s="0">
-        <v>725</v>
-      </c>
-      <c r="C333" s="0">
-        <v>1.5617529880478065</v>
-      </c>
-      <c r="D333" s="0">
-        <v>0.079659994608560256</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="0">
-        <v>840</v>
-      </c>
-      <c r="B334" s="0">
-        <v>305</v>
-      </c>
-      <c r="C334" s="0">
-        <v>1.1219123505976101</v>
-      </c>
-      <c r="D334" s="0">
-        <v>0.055305770827758914</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="0">
-        <v>840</v>
-      </c>
-      <c r="B335" s="0">
-        <v>365</v>
-      </c>
-      <c r="C335" s="0">
-        <v>0.56764940239043815</v>
-      </c>
-      <c r="D335" s="0">
-        <v>0.17908783484547861</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="0">
-        <v>840</v>
-      </c>
-      <c r="B336" s="0">
-        <v>665</v>
-      </c>
-      <c r="C336" s="0">
-        <v>1.5328286852589645</v>
-      </c>
-      <c r="D336" s="0">
-        <v>0.038141401834024674</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="0">
-        <v>840</v>
-      </c>
-      <c r="B337" s="0">
-        <v>725</v>
-      </c>
-      <c r="C337" s="0">
-        <v>1.5600396825396834</v>
-      </c>
-      <c r="D337" s="0">
-        <v>0.056656496347593441</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="0">
-        <v>900</v>
-      </c>
-      <c r="B338" s="0">
-        <v>305</v>
-      </c>
-      <c r="C338" s="0">
-        <v>1.1721825396825392</v>
-      </c>
-      <c r="D338" s="0">
-        <v>0.062551957787157941</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="0">
-        <v>900</v>
-      </c>
-      <c r="B339" s="0">
-        <v>365</v>
-      </c>
-      <c r="C339" s="0">
-        <v>0.76904382470119537</v>
-      </c>
-      <c r="D339" s="0">
-        <v>0.052648666381145348</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="0">
-        <v>900</v>
-      </c>
-      <c r="B340" s="0">
-        <v>665</v>
-      </c>
-      <c r="C340" s="0">
-        <v>1.578690476190475</v>
-      </c>
-      <c r="D340" s="0">
-        <v>0.022623530494669787</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="0">
-        <v>900</v>
-      </c>
-      <c r="B341" s="0">
-        <v>725</v>
-      </c>
-      <c r="C341" s="0">
-        <v>1.4562948207171298</v>
-      </c>
-      <c r="D341" s="0">
-        <v>0.1654019852754729</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="0">
-        <v>960</v>
-      </c>
-      <c r="B342" s="0">
-        <v>305</v>
-      </c>
-      <c r="C342" s="0">
-        <v>1.1489641434262945</v>
-      </c>
-      <c r="D342" s="0">
-        <v>0.050877526562946682</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="0">
-        <v>960</v>
-      </c>
-      <c r="B343" s="0">
-        <v>365</v>
-      </c>
-      <c r="C343" s="0">
-        <v>0.74832669322709222</v>
-      </c>
-      <c r="D343" s="0">
-        <v>0.041890199863709336</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="0">
-        <v>960</v>
-      </c>
-      <c r="B344" s="0">
-        <v>665</v>
-      </c>
-      <c r="C344" s="0">
-        <v>1.5704780876494004</v>
-      </c>
-      <c r="D344" s="0">
-        <v>0.022085527340959841</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="0">
-        <v>960</v>
-      </c>
-      <c r="B345" s="0">
-        <v>725</v>
-      </c>
-      <c r="C345" s="0">
-        <v>1.3400793650793648</v>
-      </c>
-      <c r="D345" s="0">
-        <v>0.14883342399609051</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="0">
-        <v>1020</v>
-      </c>
-      <c r="B346" s="0">
-        <v>305</v>
-      </c>
-      <c r="C346" s="0">
-        <v>1.1284523809523805</v>
-      </c>
-      <c r="D346" s="0">
-        <v>0.063292668349647252</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="0">
-        <v>1020</v>
-      </c>
-      <c r="B347" s="0">
-        <v>365</v>
-      </c>
-      <c r="C347" s="0">
-        <v>0.56354581673306803</v>
-      </c>
-      <c r="D347" s="0">
-        <v>0.18151742861893536</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="0">
-        <v>1020</v>
-      </c>
-      <c r="B348" s="0">
-        <v>665</v>
-      </c>
-      <c r="C348" s="0">
-        <v>1.576388888888888</v>
-      </c>
-      <c r="D348" s="0">
-        <v>0.04810404928201209</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="0">
-        <v>1020</v>
-      </c>
-      <c r="B349" s="0">
-        <v>725</v>
-      </c>
-      <c r="C349" s="0">
-        <v>1.5643824701195195</v>
-      </c>
-      <c r="D349" s="0">
-        <v>0.10574269304057894</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="0">
-        <v>1080</v>
-      </c>
-      <c r="B350" s="0">
-        <v>305</v>
-      </c>
-      <c r="C350" s="0">
-        <v>1.1454980079681276</v>
-      </c>
-      <c r="D350" s="0">
-        <v>0.046450522020919593</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="0">
-        <v>1080</v>
-      </c>
-      <c r="B351" s="0">
-        <v>365</v>
-      </c>
-      <c r="C351" s="0">
-        <v>0.76932539682539669</v>
-      </c>
-      <c r="D351" s="0">
-        <v>0.042622465573392686</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="0">
-        <v>1080</v>
-      </c>
-      <c r="B352" s="0">
-        <v>665</v>
-      </c>
-      <c r="C352" s="0">
-        <v>1.5977689243027891</v>
-      </c>
-      <c r="D352" s="0">
-        <v>0.028882562047682813</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="0">
-        <v>1080</v>
-      </c>
-      <c r="B353" s="0">
-        <v>725</v>
-      </c>
-      <c r="C353" s="0">
-        <v>1.5593227091633457</v>
-      </c>
-      <c r="D353" s="0">
-        <v>0.069327768190178093</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="0">
-        <v>1140</v>
-      </c>
-      <c r="B354" s="0">
-        <v>305</v>
-      </c>
-      <c r="C354" s="0">
-        <v>1.1240873015873003</v>
-      </c>
-      <c r="D354" s="0">
-        <v>0.042767325622450739</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="0">
-        <v>1140</v>
-      </c>
-      <c r="B355" s="0">
-        <v>365</v>
-      </c>
-      <c r="C355" s="0">
-        <v>1.0110317460317457</v>
-      </c>
-      <c r="D355" s="0">
-        <v>0.18660023684487828</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="0">
-        <v>1140</v>
-      </c>
-      <c r="B356" s="0">
-        <v>665</v>
-      </c>
-      <c r="C356" s="0">
-        <v>1.5602390438247009</v>
-      </c>
-      <c r="D356" s="0">
-        <v>0.043108498344086026</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="0">
-        <v>1140</v>
-      </c>
-      <c r="B357" s="0">
-        <v>725</v>
-      </c>
-      <c r="C357" s="0">
-        <v>1.5774103585657355</v>
-      </c>
-      <c r="D357" s="0">
-        <v>0.044668410899324759</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="0">
-        <v>1200</v>
-      </c>
-      <c r="B358" s="0">
-        <v>305</v>
-      </c>
-      <c r="C358" s="0">
-        <v>1.129484126984126</v>
-      </c>
-      <c r="D358" s="0">
-        <v>0.068879273578609068</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="0">
-        <v>1200</v>
-      </c>
-      <c r="B359" s="0">
-        <v>365</v>
-      </c>
-      <c r="C359" s="0">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="D359" s="0">
-        <v>0.14498110881197801</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="0">
-        <v>1200</v>
-      </c>
-      <c r="B360" s="0">
-        <v>665</v>
-      </c>
-      <c r="C360" s="0">
-        <v>1.5880555555555538</v>
-      </c>
-      <c r="D360" s="0">
-        <v>0.032770311497243666</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="0">
-        <v>1200</v>
-      </c>
-      <c r="B361" s="0">
-        <v>725</v>
-      </c>
-      <c r="C361" s="0">
-        <v>1.5591235059760966</v>
-      </c>
-      <c r="D361" s="0">
         <v>0.065781674387772798</v>
       </c>
     </row>
